--- a/Team-Data/2008-09/1-5-2008-09.xlsx
+++ b/Team-Data/2008-09/1-5-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,13 +814,13 @@
         <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -786,25 +853,25 @@
         <v>25</v>
       </c>
       <c r="AR2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS2" t="n">
         <v>17</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>18</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="n">
         <v>9</v>
       </c>
       <c r="AW2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -813,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -848,97 +915,97 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.824</v>
+        <v>0.829</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
         <v>21.6</v>
       </c>
       <c r="P3" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
         <v>16.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -953,25 +1020,25 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-2.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1135,13 +1202,13 @@
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1165,10 +1232,10 @@
         <v>23</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -1212,97 +1279,97 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394</v>
+        <v>0.412</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.796</v>
+        <v>0.794</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.3</v>
+        <v>-3.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1317,37 +1384,37 @@
         <v>16</v>
       </c>
       <c r="AM5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>22</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1359,10 +1426,10 @@
         <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -1394,103 +1461,103 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.844</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J6" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1499,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
@@ -1511,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
         <v>15</v>
@@ -1520,28 +1587,28 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -1669,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>7</v>
@@ -1687,7 +1754,7 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1717,16 +1784,16 @@
         <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.657</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="J8" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O8" t="n">
         <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="T8" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
         <v>5.9</v>
@@ -1830,10 +1897,10 @@
         <v>23.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1845,28 +1912,28 @@
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>25</v>
@@ -1908,10 +1975,10 @@
         <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -2033,16 +2100,16 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
         <v>27</v>
@@ -2054,16 +2121,16 @@
         <v>25</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>22</v>
       </c>
       <c r="AS9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
@@ -2075,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>9</v>
@@ -2093,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.278</v>
+        <v>0.286</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,37 +2207,37 @@
         <v>38.3</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.341</v>
+        <v>0.338</v>
       </c>
       <c r="O10" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="P10" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0.762</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S10" t="n">
         <v>29.6</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
         <v>20</v>
@@ -2182,22 +2249,22 @@
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y10" t="n">
         <v>5.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.5</v>
+        <v>105.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2206,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
@@ -2218,10 +2285,10 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>18</v>
@@ -2239,22 +2306,22 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>12</v>
@@ -2409,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>10</v>
@@ -2427,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
@@ -2439,22 +2506,22 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
         <v>13</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.353</v>
+        <v>0.364</v>
       </c>
       <c r="H12" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I12" t="n">
         <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>86.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M12" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q12" t="n">
         <v>0.802</v>
       </c>
       <c r="R12" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T12" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2549,22 +2616,22 @@
         <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
         <v>23.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.3</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2582,25 +2649,25 @@
         <v>2</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN12" t="n">
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2612,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>4</v>
@@ -2633,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -2770,10 +2837,10 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
@@ -2782,7 +2849,7 @@
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2791,10 +2858,10 @@
         <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
@@ -2803,7 +2870,7 @@
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2815,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -2946,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>15</v>
@@ -2958,25 +3025,25 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>7</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2991,10 +3058,10 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3131,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,10 +3207,10 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
@@ -3167,13 +3234,13 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>18</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.545</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3238,76 +3305,76 @@
         <v>0.445</v>
       </c>
       <c r="L16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N16" t="n">
         <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
         <v>0.735</v>
       </c>
       <c r="R16" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S16" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T16" t="n">
         <v>40.7</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V16" t="n">
         <v>12.9</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
         <v>14</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>15</v>
       </c>
-      <c r="AH16" t="n">
-        <v>16</v>
-      </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3316,7 +3383,7 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
         <v>9</v>
@@ -3325,19 +3392,19 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3352,16 +3419,16 @@
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -3399,13 +3466,13 @@
         <v>35</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.486</v>
+        <v>0.457</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,82 +3481,82 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.44</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U17" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3498,10 +3565,10 @@
         <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN17" t="n">
         <v>22</v>
@@ -3510,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>10</v>
@@ -3522,22 +3589,22 @@
         <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW17" t="n">
         <v>19</v>
       </c>
-      <c r="AW17" t="n">
-        <v>18</v>
-      </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,10 +3613,10 @@
         <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3683,7 +3750,7 @@
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>26</v>
@@ -3692,16 +3759,16 @@
         <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
         <v>15</v>
@@ -3716,7 +3783,7 @@
         <v>29</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,10 +3792,10 @@
         <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -3760,85 +3827,85 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.486</v>
+        <v>0.471</v>
       </c>
       <c r="H19" t="n">
         <v>48.7</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M19" t="n">
         <v>20.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.374</v>
+        <v>0.37</v>
       </c>
       <c r="O19" t="n">
         <v>20.6</v>
       </c>
       <c r="P19" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.781</v>
+        <v>0.789</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="U19" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V19" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3865,25 +3932,25 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ19" t="n">
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>17</v>
@@ -3901,19 +3968,19 @@
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4071,10 +4138,10 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
@@ -4086,7 +4153,7 @@
         <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -4205,13 +4272,13 @@
         <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -4235,10 +4302,10 @@
         <v>15</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>6</v>
@@ -4253,13 +4320,13 @@
         <v>8</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4399,7 +4466,7 @@
         <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
@@ -4417,7 +4484,7 @@
         <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP22" t="n">
         <v>16</v>
@@ -4426,7 +4493,7 @@
         <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS22" t="n">
         <v>18</v>
@@ -4441,7 +4508,7 @@
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
@@ -4450,7 +4517,7 @@
         <v>20</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4584,10 +4651,10 @@
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4599,19 +4666,19 @@
         <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
         <v>9</v>
@@ -4626,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY23" t="n">
         <v>4</v>
@@ -4638,7 +4705,7 @@
         <v>7</v>
       </c>
       <c r="BB23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -4751,13 +4818,13 @@
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4766,7 +4833,7 @@
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>17</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4796,13 +4863,13 @@
         <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
       </c>
       <c r="AV24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
@@ -4966,7 +5033,7 @@
         <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ25" t="n">
         <v>26</v>
@@ -4978,13 +5045,13 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
         <v>11</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4996,13 +5063,13 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.606</v>
+        <v>0.588</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5145,10 +5212,10 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>11</v>
@@ -5163,31 +5230,31 @@
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
         <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>0.229</v>
+        <v>0.235</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,25 +5301,25 @@
         <v>35.9</v>
       </c>
       <c r="J27" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M27" t="n">
         <v>17.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.323</v>
+        <v>0.325</v>
       </c>
       <c r="O27" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P27" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q27" t="n">
         <v>0.792</v>
@@ -5267,16 +5334,16 @@
         <v>39.5</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y27" t="n">
         <v>5.1</v>
@@ -5288,13 +5355,13 @@
         <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,7 +5373,7 @@
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,7 +5382,7 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
@@ -5345,25 +5412,25 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW27" t="n">
         <v>24</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
@@ -5416,7 +5483,7 @@
         <v>36.8</v>
       </c>
       <c r="J28" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
@@ -5428,28 +5495,28 @@
         <v>20.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.407</v>
+        <v>0.406</v>
       </c>
       <c r="O28" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
         <v>40</v>
       </c>
       <c r="U28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V28" t="n">
         <v>12.2</v>
@@ -5458,25 +5525,25 @@
         <v>5.4</v>
       </c>
       <c r="X28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5488,10 +5555,10 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5536,22 +5603,22 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
         <v>8</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
         <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>0.412</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J29" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L29" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M29" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.83</v>
       </c>
       <c r="R29" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U29" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V29" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
@@ -5643,55 +5710,55 @@
         <v>5.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB29" t="n">
         <v>97</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>17</v>
       </c>
       <c r="AM29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN29" t="n">
         <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5703,22 +5770,22 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
       </c>
       <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
         <v>6</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
         <v>13</v>
@@ -5730,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.571</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.473</v>
@@ -5792,67 +5859,67 @@
         <v>13</v>
       </c>
       <c r="N30" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="O30" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="P30" t="n">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="Q30" t="n">
         <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U30" t="n">
         <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W30" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>5.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
         <v>22.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="AC30" t="n">
         <v>2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5861,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,40 +5937,40 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>25</v>
@@ -5912,10 +5979,10 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
@@ -6049,13 +6116,13 @@
         <v>22</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6070,10 +6137,10 @@
         <v>27</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-5-2008-09</t>
+          <t>2009-01-05</t>
         </is>
       </c>
     </row>
